--- a/test.xlsx
+++ b/test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nseindia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6EA8A4D-1AA6-4722-8B5D-050344C3E6C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DA85D98-5F50-4D8A-B033-D096BD316B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{CEE64F86-AE11-45F5-80F0-99AA4BC9BCB4}"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="17580" windowHeight="6540" xr2:uid="{CEE64F86-AE11-45F5-80F0-99AA4BC9BCB4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testing" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,16 +30,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
-    <t>h</t>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,13 +56,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFCCCC00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE60000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFE60000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFE60000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFCCCC00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFE60000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00E600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE60000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,8 +150,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,118 +476,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0223077-5FD3-404A-96A7-1639CE4A30B7}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9842DC64-A069-4E6A-B091-ED539D09C0C0}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>49074</v>
-      </c>
-      <c r="C3">
-        <v>10245</v>
-      </c>
-      <c r="D3">
-        <v>23015</v>
-      </c>
-      <c r="E3">
-        <v>79761</v>
-      </c>
-      <c r="F3">
-        <v>35481</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>32414</v>
-      </c>
-      <c r="C4">
-        <v>48331</v>
-      </c>
-      <c r="D4">
-        <v>86726</v>
-      </c>
-      <c r="E4">
-        <v>28602</v>
-      </c>
-      <c r="F4">
-        <v>99982</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>65583</v>
-      </c>
-      <c r="C5">
-        <v>66136</v>
-      </c>
-      <c r="D5">
-        <v>73130</v>
-      </c>
-      <c r="E5">
-        <v>10634</v>
-      </c>
-      <c r="F5">
-        <v>85078</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>32169</v>
-      </c>
-      <c r="C6">
-        <v>18326</v>
-      </c>
-      <c r="D6">
-        <v>62796</v>
-      </c>
-      <c r="E6">
-        <v>15996</v>
-      </c>
-      <c r="F6">
-        <v>30056</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>45171</v>
-      </c>
-      <c r="C7">
-        <v>78992</v>
-      </c>
-      <c r="D7">
-        <v>55659</v>
-      </c>
-      <c r="E7">
-        <v>1390</v>
-      </c>
-      <c r="F7">
-        <v>45090</v>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:F7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nseindia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DA85D98-5F50-4D8A-B033-D096BD316B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A11138A-285A-449F-B28A-AA5A0BD60435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="17580" windowHeight="6540" xr2:uid="{CEE64F86-AE11-45F5-80F0-99AA4BC9BCB4}"/>
+    <workbookView xWindow="2910" yWindow="2355" windowWidth="17580" windowHeight="6540" xr2:uid="{CEE64F86-AE11-45F5-80F0-99AA4BC9BCB4}"/>
   </bookViews>
   <sheets>
     <sheet name="testing" sheetId="2" r:id="rId1"/>
@@ -160,9 +160,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
